--- a/0_Acute-Chronic/1_Scanpy/0_Scanpy_out_resampled/0_sum/0_Acute-Chronic_Louvain--CellType_count.xlsx
+++ b/0_Acute-Chronic/1_Scanpy/0_Scanpy_out_resampled/0_sum/0_Acute-Chronic_Louvain--CellType_count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Yolanda1TB/CD8_DEV_SC/0_Acute-Chronic/1_Scanpy/0_Scanpy_out_resampled/0_sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1574047D-8E52-114B-BF7A-4A936D1E1F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255FBE7-2AF2-B148-B5D6-D01656DFDD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="980" windowWidth="27640" windowHeight="15160"/>
+    <workbookView xWindow="-2460" yWindow="-19320" windowWidth="27640" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Acute-Chronic_Louvain--CellTy" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>louvain</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>minus P2</t>
+  </si>
+  <si>
+    <t>minus P7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +234,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -577,9 +588,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,11 +947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,37 +1305,70 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>B13-B4</f>
         <v>740</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:H14" si="1">C13-C4</f>
         <v>893</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>1224</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>1214</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>1127</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>912</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>1116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B13-B9</f>
+        <v>655</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:H15" si="2">C13-C9</f>
+        <v>908</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>1223</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>959</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>1223</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>1218</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>

--- a/0_Acute-Chronic/1_Scanpy/0_Scanpy_out_resampled/0_sum/0_Acute-Chronic_Louvain--CellType_count.xlsx
+++ b/0_Acute-Chronic/1_Scanpy/0_Scanpy_out_resampled/0_sum/0_Acute-Chronic_Louvain--CellType_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Yolanda1TB/CD8_DEV_SC/0_Acute-Chronic/1_Scanpy/0_Scanpy_out_resampled/0_sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255FBE7-2AF2-B148-B5D6-D01656DFDD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18DDD8-331C-0349-86A8-70BBA1F2EA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2460" yWindow="-19320" windowWidth="27640" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,7 +951,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
